--- a/TFG/res/pacientData/1/Resultats.xlsx
+++ b/TFG/res/pacientData/1/Resultats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="496">
   <si>
     <t>Pacient</t>
   </si>
@@ -38,16 +38,16 @@
     <t>Estat civil</t>
   </si>
   <si>
-    <t>Professió</t>
+    <t>ProfessiÃ³</t>
   </si>
   <si>
     <t>Categoria professional</t>
   </si>
   <si>
-    <t>Situació laboral</t>
-  </si>
-  <si>
-    <t>Nivell socioeconòmic</t>
+    <t>SituaciÃ³ laboral</t>
+  </si>
+  <si>
+    <t>Nivell socioeconÃ²mic</t>
   </si>
   <si>
     <t>Fumador/a actualment</t>
@@ -65,7 +65,7 @@
     <t>Consum d'alcohol actual</t>
   </si>
   <si>
-    <t>Núm. i tipus de begudes alcohòliques/dia</t>
+    <t>NÃºm. i tipus de begudes alcohÃ²liques/dia</t>
   </si>
   <si>
     <t>UBE/dia</t>
@@ -77,10 +77,10 @@
     <t>Edat inici alcohol</t>
   </si>
   <si>
-    <t>Malalties cròniqus concomitants</t>
-  </si>
-  <si>
-    <t>Temps en tractament no farmacològic</t>
+    <t>Malalties crÃ²niqus concomitants</t>
+  </si>
+  <si>
+    <t>Temps en tractament no farmacolÃ²gic</t>
   </si>
   <si>
     <t>Malaltia d'Alzheimer</t>
@@ -92,7 +92,7 @@
     <t>Sindrome de Down</t>
   </si>
   <si>
-    <t>Altres demències</t>
+    <t>Altres demÃ¨ncies</t>
   </si>
   <si>
     <t>Antecedents del pare</t>
@@ -104,7 +104,7 @@
     <t>Altres familiars</t>
   </si>
   <si>
-    <t>Cafè i te</t>
+    <t>CafÃ¨ i te</t>
   </si>
   <si>
     <t>Tabac</t>
@@ -116,34 +116,34 @@
     <t>Cannabis</t>
   </si>
   <si>
-    <t>Feina i tòxics laborals</t>
+    <t>Feina i tÃ²xics laborals</t>
   </si>
   <si>
     <t>Altres antecedents personals</t>
   </si>
   <si>
-    <t>Hipertensió</t>
+    <t>HipertensiÃ³</t>
   </si>
   <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Insuficiència cardíaca</t>
+    <t>InsuficiÃ¨ncia cardÃ­aca</t>
   </si>
   <si>
     <t>Infart de miocardi</t>
   </si>
   <si>
-    <t>Cardiopatia isquèmica</t>
+    <t>Cardiopatia isquÃ¨mica</t>
   </si>
   <si>
     <t>Arritmia</t>
   </si>
   <si>
-    <t>Malaltia vascular perifèrica arterial</t>
-  </si>
-  <si>
-    <t>Diabètis</t>
+    <t>Malaltia vascular perifÃ¨rica arterial</t>
+  </si>
+  <si>
+    <t>DiabÃ¨tis</t>
   </si>
   <si>
     <t>Obesitat</t>
@@ -167,7 +167,7 @@
     <t>Hepatopatia</t>
   </si>
   <si>
-    <t>Depressió</t>
+    <t>DepressiÃ³</t>
   </si>
   <si>
     <t>Ansietat</t>
@@ -176,10 +176,10 @@
     <t>Psicosis</t>
   </si>
   <si>
-    <t>Abús d'alcohol</t>
-  </si>
-  <si>
-    <t>Abús de drogues</t>
+    <t>AbÃºs d'alcohol</t>
+  </si>
+  <si>
+    <t>AbÃºs de drogues</t>
   </si>
   <si>
     <t>AVC establert</t>
@@ -188,13 +188,13 @@
     <t>AVC transitori</t>
   </si>
   <si>
-    <t>Epilèpsia</t>
+    <t>EpilÃ¨psia</t>
   </si>
   <si>
     <t>Trauma craneal greu</t>
   </si>
   <si>
-    <t>Esclerosis múltiple</t>
+    <t>Esclerosis mÃºltiple</t>
   </si>
   <si>
     <t>Cefalea</t>
@@ -206,13 +206,13 @@
     <t>EPOC</t>
   </si>
   <si>
-    <t>Anèmia</t>
+    <t>AnÃ¨mia</t>
   </si>
   <si>
     <t>Leucosis</t>
   </si>
   <si>
-    <t>Al·lèrgia</t>
+    <t>AlÂ·lÃ¨rgia</t>
   </si>
   <si>
     <t>Glaucoma</t>
@@ -242,10 +242,10 @@
     <t>Maligne</t>
   </si>
   <si>
-    <t>Ansiolítics i sedants</t>
-  </si>
-  <si>
-    <t>Hipnòtics</t>
+    <t>AnsiolÃ­tics i sedants</t>
+  </si>
+  <si>
+    <t>HipnÃ²tics</t>
   </si>
   <si>
     <t>Antidepresius</t>
@@ -254,7 +254,7 @@
     <t>Animaniacs</t>
   </si>
   <si>
-    <t>Anipsicòtics/Neurolèptics</t>
+    <t>AnipsicÃ²tics/NeurolÃ¨ptics</t>
   </si>
   <si>
     <t>Animigranyosos</t>
@@ -263,16 +263,16 @@
     <t>Opioides</t>
   </si>
   <si>
-    <t>Antiepilèptics/Anticonvulsivants</t>
+    <t>AntiepilÃ¨ptics/Anticonvulsivants</t>
   </si>
   <si>
     <t>Antiparkinsonians</t>
   </si>
   <si>
-    <t>Fàrmacs i múscul estriat</t>
-  </si>
-  <si>
-    <t>Vasodilatadors cerebrals i nootròpics</t>
+    <t>FÃ rmacs i mÃºscul estriat</t>
+  </si>
+  <si>
+    <t>Vasodilatadors cerebrals i nootrÃ²pics</t>
   </si>
   <si>
     <t>Alzheimer: inhibidors de la Ac-esterasa</t>
@@ -284,85 +284,85 @@
     <t>Psicoestimulants</t>
   </si>
   <si>
-    <t>Substàncies d'abús</t>
-  </si>
-  <si>
-    <t>Deshabituació de substàncies d'abús</t>
-  </si>
-  <si>
-    <t>Antiàcids/protectors gàstrics</t>
-  </si>
-  <si>
-    <t>Antidiabètics</t>
-  </si>
-  <si>
-    <t>Antitrombòtics/Anticoagulants</t>
+    <t>SubstÃ ncies d'abÃºs</t>
+  </si>
+  <si>
+    <t>DeshabituaciÃ³ de substÃ ncies d'abÃºs</t>
+  </si>
+  <si>
+    <t>AntiÃ cids/protectors gÃ strics</t>
+  </si>
+  <si>
+    <t>AntidiabÃ¨tics</t>
+  </si>
+  <si>
+    <t>AntitrombÃ²tics/Anticoagulants</t>
   </si>
   <si>
     <t>Antiagregants</t>
   </si>
   <si>
-    <t>Cardiotònics/Antiarritmics</t>
+    <t>CardiotÃ²nics/Antiarritmics</t>
   </si>
   <si>
     <t>Antihipertenius</t>
   </si>
   <si>
-    <t>Diurètics</t>
+    <t>DiurÃ¨tics</t>
   </si>
   <si>
     <t>Hipolipemiants</t>
   </si>
   <si>
-    <t>Dermatològics</t>
+    <t>DermatolÃ²gics</t>
   </si>
   <si>
     <t>Hormones sexuals</t>
   </si>
   <si>
-    <t>Urològics</t>
-  </si>
-  <si>
-    <t>Corticosteroides sintètics</t>
+    <t>UrolÃ²gics</t>
+  </si>
+  <si>
+    <t>Corticosteroides sintÃ¨tics</t>
   </si>
   <si>
     <t>Terapia tiroidea</t>
   </si>
   <si>
-    <t>Antineapàstics/Immunomoduladors</t>
-  </si>
-  <si>
-    <t>Antiinflamatoris/Antirreumàtics</t>
-  </si>
-  <si>
-    <t>Analgèsics/Antipirètics</t>
+    <t>AntineapÃ stics/Immunomoduladors</t>
+  </si>
+  <si>
+    <t>Antiinflamatoris/AntirreumÃ tics</t>
+  </si>
+  <si>
+    <t>AnalgÃ¨sics/AntipirÃ¨tics</t>
   </si>
   <si>
     <t>Broncodilatadors</t>
   </si>
   <si>
-    <t>Oftalmològics</t>
+    <t>OftalmolÃ²gics</t>
   </si>
   <si>
     <t>ECG: codi resultat</t>
   </si>
   <si>
-    <t>Descripció</t>
-  </si>
-  <si>
-    <t>Analítica de sang: codi resultat</t>
-  </si>
-  <si>
-    <t>Analítica d'orina: codi resultat</t>
-  </si>
-  <si>
-    <t>Analítica de LCR: codi resultat</t>
-  </si>
-  <si>
-    <t>Genètica: codi resultat</t>
-  </si>
-  <si>
-    <t>RX de tòrax: codi resultat</t>
+    <t>DescripciÃ³</t>
+  </si>
+  <si>
+    <t>AnalÃ­tica de sang: codi resultat</t>
+  </si>
+  <si>
+    <t>AnalÃ­tica d'orina: codi resultat</t>
+  </si>
+  <si>
+    <t>AnalÃ­tica de LCR: codi resultat</t>
+  </si>
+  <si>
+    <t>GenÃ¨tica: codi resultat</t>
+  </si>
+  <si>
+    <t>RX de tÃ²rax: codi resultat</t>
   </si>
   <si>
     <t>EEG: codi resultat</t>
@@ -377,7 +377,7 @@
     <t>N-TMS: codi resultat</t>
   </si>
   <si>
-    <t>Anatomia patològica: codi resultat</t>
+    <t>Anatomia patolÃ²gica: codi resultat</t>
   </si>
   <si>
     <t>TC: codi resultat</t>
@@ -707,19 +707,19 @@
     <t>FD - Eleccio Errors PC_T1</t>
   </si>
   <si>
-    <t>Five Digits - Alternança Temps_T1</t>
-  </si>
-  <si>
-    <t>FD - Alternança Temps PC_T1</t>
-  </si>
-  <si>
-    <t>FD - Alternança Errors_T1</t>
-  </si>
-  <si>
-    <t>FD - Alternança Errors PC_T1</t>
-  </si>
-  <si>
-    <t>Five Digits - Inhibició PC_T1</t>
+    <t>Five Digits - AlternanÃ§a Temps_T1</t>
+  </si>
+  <si>
+    <t>FD - AlternanÃ§a Temps PC_T1</t>
+  </si>
+  <si>
+    <t>FD - AlternanÃ§a Errors_T1</t>
+  </si>
+  <si>
+    <t>FD - AlternanÃ§a Errors PC_T1</t>
+  </si>
+  <si>
+    <t>Five Digits - InhibiciÃ³ PC_T1</t>
   </si>
   <si>
     <t>Five Digits - Flexibilitat PC_T1</t>
@@ -743,7 +743,7 @@
     <t>UPSA Comunicacio_T1</t>
   </si>
   <si>
-    <t>UPSA Comprensió_T1</t>
+    <t>UPSA ComprensiÃ³_T1</t>
   </si>
   <si>
     <t>UPSA total_T1</t>
@@ -1064,19 +1064,19 @@
     <t>FD - Eleccio Errors PC_T2</t>
   </si>
   <si>
-    <t>Five Digits - Alternança Temps_T2</t>
-  </si>
-  <si>
-    <t>FD - Alternança Temps PC_T2</t>
-  </si>
-  <si>
-    <t>FD - Alternança Errors_T2</t>
-  </si>
-  <si>
-    <t>FD - Alternança Errors PC_T2</t>
-  </si>
-  <si>
-    <t>Five Digits - Inhibició PC_T2</t>
+    <t>Five Digits - AlternanÃ§a Temps_T2</t>
+  </si>
+  <si>
+    <t>FD - AlternanÃ§a Temps PC_T2</t>
+  </si>
+  <si>
+    <t>FD - AlternanÃ§a Errors_T2</t>
+  </si>
+  <si>
+    <t>FD - AlternanÃ§a Errors PC_T2</t>
+  </si>
+  <si>
+    <t>Five Digits - InhibiciÃ³ PC_T2</t>
   </si>
   <si>
     <t>Five Digits - Flexibilitat PC_T2</t>
@@ -1100,7 +1100,7 @@
     <t>UPSA Comunicacio_T2</t>
   </si>
   <si>
-    <t>UPSA Comprensió_T2</t>
+    <t>UPSA ComprensiÃ³_T2</t>
   </si>
   <si>
     <t>UPSA total_T2</t>
@@ -1421,19 +1421,19 @@
     <t>FD - Eleccio Errors PC_T3</t>
   </si>
   <si>
-    <t>Five Digits - Alternança Temps_T3</t>
-  </si>
-  <si>
-    <t>FD - Alternança Temps PC_T3</t>
-  </si>
-  <si>
-    <t>FD - Alternança Errors_T3</t>
-  </si>
-  <si>
-    <t>FD - Alternança Errors PC_T3</t>
-  </si>
-  <si>
-    <t>Five Digits - Inhibició PC_T3</t>
+    <t>Five Digits - AlternanÃ§a Temps_T3</t>
+  </si>
+  <si>
+    <t>FD - AlternanÃ§a Temps PC_T3</t>
+  </si>
+  <si>
+    <t>FD - AlternanÃ§a Errors_T3</t>
+  </si>
+  <si>
+    <t>FD - AlternanÃ§a Errors PC_T3</t>
+  </si>
+  <si>
+    <t>Five Digits - InhibiciÃ³ PC_T3</t>
   </si>
   <si>
     <t>Five Digits - Flexibilitat PC_T3</t>
@@ -1457,7 +1457,7 @@
     <t>UPSA Comunicacio_T3</t>
   </si>
   <si>
-    <t>UPSA Comprensió_T3</t>
+    <t>UPSA ComprensiÃ³_T3</t>
   </si>
   <si>
     <t>UPSA total_T3</t>
@@ -1496,76 +1496,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Només castellà</t>
-  </si>
-  <si>
-    <t>13/01/1955</t>
-  </si>
-  <si>
-    <t>Estudis primaris complets</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Divorciat</t>
-  </si>
-  <si>
-    <t>asdfasdf</t>
-  </si>
-  <si>
-    <t>Científic/intel·lectual</t>
-  </si>
-  <si>
-    <t>Pensionista</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>penislargisme</t>
-  </si>
-  <si>
-    <t>perecrastination</t>
-  </si>
-  <si>
-    <t>asesino en serie</t>
-  </si>
-  <si>
-    <t>extraterrestre</t>
-  </si>
-  <si>
-    <t>una prima</t>
-  </si>
-  <si>
-    <t>de todo</t>
-  </si>
-  <si>
-    <t>una vez se fue de vacaciones</t>
-  </si>
-  <si>
-    <t>18/01/2017</t>
-  </si>
-  <si>
-    <t>Valoració clínica de demència (CDR):</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Dona</t>
+  </si>
+  <si>
+    <t>NomÃ©s castellÃ </t>
   </si>
 </sst>
 </file>
@@ -3384,637 +3318,13 @@
         <v>493</v>
       </c>
       <c r="B2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" t="s">
         <v>494</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>495</v>
-      </c>
-      <c r="D2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G2" t="s">
-        <v>499</v>
-      </c>
-      <c r="H2" t="s">
-        <v>500</v>
-      </c>
-      <c r="I2" t="s">
-        <v>501</v>
-      </c>
-      <c r="J2" t="s">
-        <v>502</v>
-      </c>
-      <c r="K2" t="s">
-        <v>503</v>
-      </c>
-      <c r="L2" t="s">
-        <v>504</v>
-      </c>
-      <c r="M2" t="s">
-        <v>505</v>
-      </c>
-      <c r="N2" t="s">
-        <v>493</v>
-      </c>
-      <c r="O2" t="s">
-        <v>493</v>
-      </c>
-      <c r="P2" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>135</v>
-      </c>
-      <c r="R2" t="s">
-        <v>493</v>
-      </c>
-      <c r="S2" t="s">
-        <v>506</v>
-      </c>
-      <c r="T2" t="s">
-        <v>493</v>
-      </c>
-      <c r="U2" t="s">
-        <v>507</v>
-      </c>
-      <c r="V2" t="s">
-        <v>508</v>
-      </c>
-      <c r="W2" t="s">
-        <v>135</v>
-      </c>
-      <c r="X2" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>509</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>510</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>511</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>512</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>493</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>493</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>493</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>514</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>505</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>515</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>135</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>135</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>135</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>135</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>135</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>516</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>517</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>517</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>517</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>517</v>
       </c>
     </row>
   </sheetData>
